--- a/data/grafy/graf3.xlsx
+++ b/data/grafy/graf3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrkoci/code/inflace/data/grafy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1495185-DF85-534A-8373-EB9721DEBA42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A21BC54-0951-9F4E-959C-586FC8C20D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{3EF9F246-BCEC-E843-8DE5-4F88FD9391D3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Celkem</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>1 000,0</t>
+  </si>
+  <si>
+    <t>Zdroj: https://www.czso.cz/documents/10180/23172389/revize_2018.pdf/8be20b80-dc88-46fd-b5dd-ae2a69e010ee?version=1.1</t>
   </si>
 </sst>
 </file>
@@ -2057,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565815D6-5D6A-1A49-AE5C-C66300E560EF}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2474,6 +2477,11 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
